--- a/proyecto politico 2022.xlsx
+++ b/proyecto politico 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\Vacunacion-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C820F-6271-4FDF-93AF-2C7FF8BCDE39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F67743-1036-40D5-9AF8-CCC8600ADEF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{26FCA878-87B5-4384-BD44-5CE43DC8D795}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{26FCA878-87B5-4384-BD44-5CE43DC8D795}"/>
   </bookViews>
   <sheets>
     <sheet name="objetivos" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="407">
   <si>
     <t>Acompañar</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>Ucrania [+]</t>
+  </si>
+  <si>
+    <t>bta</t>
   </si>
 </sst>
 </file>
@@ -5468,7 +5471,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28">
         <f>vac_Colombia!D4</f>
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="27">
@@ -5484,7 +5487,7 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>8133.3</v>
+        <v>11404.2</v>
       </c>
       <c r="L13" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -6648,11 +6651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67060EE6-3F42-4826-87A3-C064823FE3E1}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7018,7 +7021,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="114" t="s">
         <v>357</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>242000</v>
       </c>
       <c r="D29" s="111">
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="E29" s="113">
         <v>0</v>
@@ -7728,7 +7731,7 @@
         <v>3,1 %</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="114" t="s">
         <v>316</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="114" t="s">
         <v>374</v>
       </c>
@@ -9431,7 +9434,7 @@
         <v>1,68 %</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115" t="s">
         <v>402</v>
       </c>
@@ -9599,7 +9602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B36E60-C2CE-44E7-97CC-2E0B44F17BBA}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F90"/>
     </sheetView>
   </sheetViews>
@@ -10349,7 +10352,7 @@
       </c>
       <c r="D29" s="122">
         <f>covid_mundial!D29</f>
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="E29" s="122">
         <f>covid_mundial!E29</f>
@@ -12453,7 +12456,7 @@
       </c>
       <c r="B13" s="21">
         <f>VACUNAS!F13</f>
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="C13" s="21">
         <f>VACUNAS!G13</f>
@@ -12469,7 +12472,7 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">VACUNAS!K13</f>
-        <v>8133.3</v>
+        <v>11404.2</v>
       </c>
       <c r="G13" s="23" t="e">
         <f ca="1">VACUNAS!N13</f>
@@ -18410,20 +18413,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0198910-690C-45CD-BDC7-01DF2CC6D784}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -18437,7 +18440,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44244</v>
       </c>
@@ -18449,10 +18452,10 @@
       </c>
       <c r="D4">
         <f>SUM(B4:B350)</f>
-        <v>81333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44245</v>
       </c>
@@ -18463,20 +18466,30 @@
       <c r="C5">
         <v>7854</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5">
+        <f>SUM(F6:F104)</f>
+        <v>34104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44246</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B13" si="0">C6-C5</f>
+        <f t="shared" ref="B6:B14" si="0">C6-C5</f>
         <v>13453</v>
       </c>
       <c r="C6">
         <v>21307</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44247</v>
       </c>
@@ -18488,7 +18501,7 @@
         <v>33140</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44248</v>
       </c>
@@ -18500,7 +18513,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44249</v>
       </c>
@@ -18512,7 +18525,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44250</v>
       </c>
@@ -18524,7 +18537,7 @@
         <v>48150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44251</v>
       </c>
@@ -18536,7 +18549,7 @@
         <v>50524</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44252</v>
       </c>
@@ -18548,7 +18561,7 @@
         <v>66157</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44253</v>
       </c>
@@ -18560,17 +18573,27 @@
         <v>81333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44254</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="66">
+        <f t="shared" si="0"/>
+        <v>32709</v>
+      </c>
+      <c r="C14">
+        <v>114042</v>
+      </c>
+      <c r="F14">
+        <v>34104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44255</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44256</v>
       </c>
